--- a/task/example.xlsx
+++ b/task/example.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16557938\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oleg/Desktop/github/sber/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23A1C5-2E14-554E-8CD0-FA1FFCF65E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23320" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,7 +143,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,37 +420,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10003.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
@@ -450,15 +458,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>44227</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -469,722 +477,722 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="3">
         <f>C5</f>
-        <v>44227</v>
+        <v>44931</v>
       </c>
       <c r="D8" s="6">
         <f>IF(B8&gt;$C$3,"",$C$2*(1+$C$4/12/100))</f>
-        <v>10049.999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10053.517499999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:C40" si="0">IF(B9&gt;$C$3,"",EDATE($C$8,B9-1))</f>
-        <v>44255</v>
+        <v>44962</v>
       </c>
       <c r="D9" s="6">
         <f>IF(B9&gt;$C$3,"",D8*(1+$C$4/12/100))</f>
-        <v>10100.249999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10103.785087499997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <v>3</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>44286</v>
+        <v>44990</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" ref="D10:D67" si="1">IF(B10&gt;$C$3,"",D9*(1+$C$4/12/100))</f>
-        <v>10150.751249999996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10154.304012937495</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <v>4</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>44316</v>
+        <v>45021</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="1"/>
-        <v>10201.505006249994</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10205.075533002182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
         <v>5</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>44347</v>
+        <v>45051</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="1"/>
-        <v>10252.512531281243</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10256.100910667192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
         <v>6</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>44377</v>
+        <v>45082</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="1"/>
-        <v>10303.775093937649</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10307.381415220527</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <v>7</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>44408</v>
+        <v>45112</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="1"/>
-        <v>10355.293969407336</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10358.918322296628</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>45143</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>10410.71291390811</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>9</v>
       </c>
-      <c r="C16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>45174</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>10462.76647847765</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>45204</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>10515.080310870037</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>45235</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>10567.655712424386</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
         <v>12</v>
       </c>
-      <c r="C19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>45265</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>10620.493990986508</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>45296</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="1"/>
+        <v>10673.596460941439</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <v>14</v>
       </c>
-      <c r="C21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>45327</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>10726.964443246145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <v>15</v>
       </c>
-      <c r="C22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>45356</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>10780.599265462373</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
         <v>16</v>
       </c>
-      <c r="C23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>45387</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>10834.502261789685</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
         <v>17</v>
       </c>
-      <c r="C24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>45417</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="1"/>
+        <v>10888.674773098632</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
         <v>18</v>
       </c>
-      <c r="C25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>45448</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="1"/>
+        <v>10943.118146964123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
         <v>19</v>
       </c>
-      <c r="C26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>45478</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>10997.833737698942</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
         <v>20</v>
       </c>
-      <c r="C27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>45509</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="1"/>
+        <v>11052.822906387435</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
         <v>21</v>
       </c>
-      <c r="C28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D28" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>45540</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>11108.087020919371</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
         <v>22</v>
       </c>
-      <c r="C29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>45570</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="1"/>
+        <v>11163.627456023967</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
         <v>23</v>
       </c>
-      <c r="C30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>45601</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="1"/>
+        <v>11219.445593304086</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>45631</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="1"/>
+        <v>11275.542821270605</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
         <v>25</v>
       </c>
-      <c r="C32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>45662</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="1"/>
+        <v>11331.920535376956</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
         <v>26</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>45693</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="1"/>
+        <v>11388.58013805384</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
         <v>27</v>
       </c>
-      <c r="C34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>45721</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="1"/>
+        <v>11445.523038744108</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
         <v>28</v>
       </c>
-      <c r="C35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>45752</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="1"/>
+        <v>11502.750653937826</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
         <v>29</v>
       </c>
-      <c r="C36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>45782</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="1"/>
+        <v>11560.264407207515</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
         <v>30</v>
       </c>
-      <c r="C37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>45813</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="1"/>
+        <v>11618.065729243552</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
         <v>31</v>
       </c>
-      <c r="C38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>45843</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="1"/>
+        <v>11676.156057889768</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
         <v>32</v>
       </c>
-      <c r="C39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>45874</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="1"/>
+        <v>11734.536838179216</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
         <v>33</v>
       </c>
-      <c r="C40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>45905</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="1"/>
+        <v>11793.209522370111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
         <v>34</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="3">
         <f t="shared" ref="C41:C67" si="2">IF(B41&gt;$C$3,"",EDATE($C$8,B41-1))</f>
-        <v/>
-      </c>
-      <c r="D41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+        <v>45935</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="1"/>
+        <v>11852.175569981961</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
         <v>35</v>
       </c>
-      <c r="C42" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="3">
+        <f t="shared" si="2"/>
+        <v>45966</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="1"/>
+        <v>11911.436447831869</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
         <v>36</v>
       </c>
-      <c r="C43" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="3">
+        <f t="shared" si="2"/>
+        <v>45996</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="1"/>
+        <v>11970.993630071027</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
         <v>37</v>
       </c>
-      <c r="C44" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="3">
+        <f t="shared" si="2"/>
+        <v>46027</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="1"/>
+        <v>12030.848598221381</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
         <v>38</v>
       </c>
-      <c r="C45" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="3">
+        <f t="shared" si="2"/>
+        <v>46058</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="1"/>
+        <v>12091.002841212487</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
         <v>39</v>
       </c>
-      <c r="C46" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="3">
+        <f t="shared" si="2"/>
+        <v>46086</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="1"/>
+        <v>12151.457855418548</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
         <v>40</v>
       </c>
-      <c r="C47" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="3">
+        <f t="shared" si="2"/>
+        <v>46117</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" si="1"/>
+        <v>12212.21514469564</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
         <v>41</v>
       </c>
-      <c r="C48" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="3">
+        <f t="shared" si="2"/>
+        <v>46147</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="1"/>
+        <v>12273.276220419117</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
         <v>42</v>
       </c>
-      <c r="C49" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="3">
+        <f t="shared" si="2"/>
+        <v>46178</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
+        <v>12334.642601521211</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
         <v>43</v>
       </c>
-      <c r="C50" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="3">
+        <f t="shared" si="2"/>
+        <v>46208</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
+        <v>12396.315814528816</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
         <v>44</v>
       </c>
-      <c r="C51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="3">
+        <f t="shared" si="2"/>
+        <v>46239</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="1"/>
+        <v>12458.297393601459</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
         <v>45</v>
       </c>
-      <c r="C52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
+        <f t="shared" si="2"/>
+        <v>46270</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="1"/>
+        <v>12520.588880569465</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="8">
         <v>46</v>
       </c>
-      <c r="C53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="3">
+        <f t="shared" si="2"/>
+        <v>46300</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="1"/>
+        <v>12583.191824972311</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="8">
         <v>47</v>
       </c>
-      <c r="C54" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="3">
+        <f t="shared" si="2"/>
+        <v>46331</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="1"/>
+        <v>12646.107784097172</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="8">
         <v>48</v>
       </c>
-      <c r="C55" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="3">
+        <f t="shared" si="2"/>
+        <v>46361</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="1"/>
+        <v>12709.338323017657</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="8">
         <v>49</v>
       </c>
-      <c r="C56" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="3">
+        <f t="shared" si="2"/>
+        <v>46392</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="1"/>
+        <v>12772.885014632744</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
         <v>50</v>
       </c>
-      <c r="C57" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="3">
+        <f t="shared" si="2"/>
+        <v>46423</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="1"/>
+        <v>12836.749439705907</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
         <v>51</v>
       </c>
-      <c r="C58" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="3">
+        <f t="shared" si="2"/>
+        <v>46451</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="1"/>
+        <v>12900.933186904434</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="8">
         <v>52</v>
       </c>
-      <c r="C59" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C59" s="3">
+        <f t="shared" si="2"/>
+        <v>46482</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="1"/>
+        <v>12965.437852838955</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="8">
         <v>53</v>
       </c>
-      <c r="C60" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="3">
+        <f t="shared" si="2"/>
+        <v>46512</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" si="1"/>
+        <v>13030.265042103149</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="8">
         <v>54</v>
       </c>
-      <c r="C61" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="3">
+        <f t="shared" si="2"/>
+        <v>46543</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="1"/>
+        <v>13095.416367313663</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="8">
         <v>55</v>
       </c>
-      <c r="C62" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C62" s="3">
+        <f t="shared" si="2"/>
+        <v>46573</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="1"/>
+        <v>13160.89344915023</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
         <v>56</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="8">
         <v>57</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="8">
         <v>58</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="8">
         <v>59</v>
       </c>
@@ -1236,7 +1244,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="8">
         <v>60</v>
       </c>
